--- a/MANCOVA_AOV_Results.xlsx
+++ b/MANCOVA_AOV_Results.xlsx
@@ -1,47 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (UFL)\PhD\Flammability\Data&amp;Code\Grass-Flammability\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FC22E-165F-49D1-8D7A-EB93EA95AB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17400" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name=" Response Flame_Duration" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name=" Response Smoldering_Duration" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name=" Response Mass_Loss" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name=" Response Mass_Rate" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name=" Response Max_Flame_Height" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name=" Response Temp_Fuel_Bed" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name=" Response Temp_10cm_Above" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name=" Response Flame_Duration" sheetId="1" r:id="rId1"/>
+    <sheet name=" Response Smoldering_Duration" sheetId="2" r:id="rId2"/>
+    <sheet name=" Response Mass_Loss" sheetId="3" r:id="rId3"/>
+    <sheet name=" Response Mass_Rate" sheetId="4" r:id="rId4"/>
+    <sheet name=" Response Max_Flame_Height" sheetId="5" r:id="rId5"/>
+    <sheet name=" Response Temp_Fuel_Bed" sheetId="6" r:id="rId6"/>
+    <sheet name=" Response Temp_10cm_Above" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
   <si>
-    <t xml:space="preserve">Source</t>
+    <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">Df</t>
+    <t>Df</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum Sq</t>
+    <t>Sum Sq</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean Sq</t>
+    <t>Mean Sq</t>
   </si>
   <si>
-    <t xml:space="preserve">F value</t>
+    <t>F value</t>
   </si>
   <si>
-    <t xml:space="preserve">Pr(&gt;F)</t>
+    <t>Pr(&gt;F)</t>
   </si>
   <si>
     <t xml:space="preserve">species       </t>
   </si>
   <si>
-    <t xml:space="preserve">Fuelbed_Height</t>
+    <t>Fuelbed_Height</t>
   </si>
   <si>
     <t xml:space="preserve">Residuals     </t>
@@ -51,8 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -81,13 +88,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,14 +386,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,77 +415,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>23628.0224719101</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2953.50280898876</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>23628.022471910099</v>
+      </c>
+      <c r="D2">
+        <v>2953.5028089887601</v>
+      </c>
+      <c r="E2">
         <v>6.46013927024749</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.00000191824630934374</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="F2">
+        <v>1.9182463093437398E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>1992.09105882431</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1992.09105882431</v>
       </c>
-      <c r="E3" t="n">
-        <v>4.35726204148289</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0400750542719711</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>4.3572620414828904</v>
+      </c>
+      <c r="F3">
+        <v>4.0075054271971097E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>79</v>
       </c>
-      <c r="C4" t="n">
-        <v>36117.9089411757</v>
-      </c>
-      <c r="D4" t="n">
-        <v>457.188720774376</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="C4">
+        <v>36117.908941175701</v>
+      </c>
+      <c r="D4">
+        <v>457.18872077437601</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,77 +503,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>18246.2661672909</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>18246.266167290902</v>
+      </c>
+      <c r="D2">
         <v>2280.78327091136</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.80805901049133</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.00860716400697518</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2">
+        <v>2.8080590104913301</v>
+      </c>
+      <c r="F2">
+        <v>8.6071640069751796E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>189.701732347383</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>189.701732347383</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.233557333402849</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.630235308009182</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>0.23355733340284901</v>
+      </c>
+      <c r="F3">
+        <v>0.63023530800918204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>79</v>
       </c>
-      <c r="C4" t="n">
-        <v>64165.9871565415</v>
-      </c>
-      <c r="D4" t="n">
-        <v>812.227685525842</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="C4">
+        <v>64165.987156541501</v>
+      </c>
+      <c r="D4">
+        <v>812.22768552584205</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,77 +591,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2300.34182977528</v>
-      </c>
-      <c r="D2" t="n">
-        <v>287.54272872191</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14.6487544074653</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.000000000000663370610550173</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2300.3418297752801</v>
+      </c>
+      <c r="D2">
+        <v>287.54272872191001</v>
+      </c>
+      <c r="E2">
+        <v>14.648754407465301</v>
+      </c>
+      <c r="F2">
+        <v>6.6337061055017301E-13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.60759274366202</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.60759274366202</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.387565904480576</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.535374531438308</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7.6075927436620203</v>
+      </c>
+      <c r="D3">
+        <v>7.6075927436620203</v>
+      </c>
+      <c r="E3">
+        <v>0.38756590448057598</v>
+      </c>
+      <c r="F3">
+        <v>0.53537453143830804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>79</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1550.70355725634</v>
       </c>
-      <c r="D4" t="n">
-        <v>19.6291589526119</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="D4">
+        <v>19.629158952611899</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,77 +684,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.893672159800249</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.111709019975031</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.82284130825477</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.000000883163432260767</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.89367215980024906</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.11170901997503099</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6.8228413082547696</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8.8316343226076702E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0147709781854719</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0147709781854719</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.4770978185471901E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.4770978185471901E-2</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.902165645618354</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.345098434028946</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="F3" s="1">
+        <v>0.34509843402894602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>79</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1">
         <v>1.29345124403675</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0163728005574272</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="D4" s="1">
+        <v>1.6372800557427201E-2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -756,77 +774,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3552.30391789014</v>
-      </c>
-      <c r="D2" t="n">
-        <v>444.037989736267</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.371331276236</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0000000000000514426656044825</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>3552.3039178901399</v>
+      </c>
+      <c r="D2">
+        <v>444.03798973626698</v>
+      </c>
+      <c r="E2">
+        <v>16.371331276235999</v>
+      </c>
+      <c r="F2">
+        <v>5.1442665604482503E-14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>591.998650413796</v>
-      </c>
-      <c r="D3" t="n">
-        <v>591.998650413796</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>591.99865041379599</v>
+      </c>
+      <c r="D3">
+        <v>591.99865041379599</v>
+      </c>
+      <c r="E3">
         <v>21.8265244078896</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.0000120633541610818</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="F3">
+        <v>1.20633541610818E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>79</v>
       </c>
-      <c r="C4" t="n">
-        <v>2142.70914180843</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.1229005292206</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="C4">
+        <v>2142.7091418084301</v>
+      </c>
+      <c r="D4">
+        <v>27.122900529220601</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -846,77 +862,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>139698.291826467</v>
       </c>
-      <c r="D2" t="n">
-        <v>17462.2864783083</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.834218158688536</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.575266503083628</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>17462.286478308299</v>
+      </c>
+      <c r="E2">
+        <v>0.83421815868853599</v>
+      </c>
+      <c r="F2">
+        <v>0.57526650308362803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>56214.8142269642</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56214.8142269642</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.68552568265844</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>56214.814226964198</v>
+      </c>
+      <c r="D3">
+        <v>56214.814226964198</v>
+      </c>
+      <c r="E3">
+        <v>2.6855256826584402</v>
+      </c>
+      <c r="F3">
         <v>0.105240638548145</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>79</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1653668.90832859</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>20932.5178269442</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,64 +950,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>76420.991968789</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9552.62399609862</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.268186609014551</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.974395789554579</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>76420.991968789007</v>
+      </c>
+      <c r="D2">
+        <v>9552.6239960986204</v>
+      </c>
+      <c r="E2">
+        <v>0.26818660901455099</v>
+      </c>
+      <c r="F2">
+        <v>0.97439578955457895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>21348.686724469</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>21348.686724469</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.599356983158513</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.441134251595951</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>0.59935698315851305</v>
+      </c>
+      <c r="F3">
+        <v>0.44113425159595099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>79</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2813926.08849775</v>
       </c>
-      <c r="D4" t="n">
-        <v>35619.3175759209</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="D4">
+        <v>35619.317575920897</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/MANCOVA_AOV_Results.xlsx
+++ b/MANCOVA_AOV_Results.xlsx
@@ -1,55 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (UFL)\PhD\Flammability\Data&amp;Code\Grass-Flammability\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FC22E-165F-49D1-8D7A-EB93EA95AB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17400" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name=" Response Flame_Duration" sheetId="1" r:id="rId1"/>
-    <sheet name=" Response Smoldering_Duration" sheetId="2" r:id="rId2"/>
-    <sheet name=" Response Mass_Loss" sheetId="3" r:id="rId3"/>
-    <sheet name=" Response Mass_Rate" sheetId="4" r:id="rId4"/>
-    <sheet name=" Response Max_Flame_Height" sheetId="5" r:id="rId5"/>
-    <sheet name=" Response Temp_Fuel_Bed" sheetId="6" r:id="rId6"/>
-    <sheet name=" Response Temp_10cm_Above" sheetId="7" r:id="rId7"/>
+    <sheet name=" Response Flame_Duration" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name=" Response Smoldering_Duration" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name=" Response Mass_Loss" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name=" Response Mass_Rate" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name=" Response Max_Flame_Height" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name=" Response Temp_Fuel_Bed" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name=" Response Temp_10cm_Above" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Source</t>
+    <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t>Df</t>
+    <t xml:space="preserve">Df</t>
   </si>
   <si>
-    <t>Sum Sq</t>
+    <t xml:space="preserve">Sum Sq</t>
   </si>
   <si>
-    <t>Mean Sq</t>
+    <t xml:space="preserve">Mean Sq</t>
   </si>
   <si>
-    <t>F value</t>
+    <t xml:space="preserve">F value</t>
   </si>
   <si>
-    <t>Pr(&gt;F)</t>
+    <t xml:space="preserve">Pr(&gt;F)</t>
   </si>
   <si>
     <t xml:space="preserve">species       </t>
   </si>
   <si>
-    <t>Fuelbed_Height</t>
+    <t xml:space="preserve">Fuelbed_Height</t>
   </si>
   <si>
     <t xml:space="preserve">Residuals     </t>
@@ -59,7 +51,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -88,23 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -386,16 +369,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,75 +396,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>23628.022471910099</v>
-      </c>
-      <c r="D2">
-        <v>2953.5028089887601</v>
-      </c>
-      <c r="E2">
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23628.0224719101</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2953.50280898876</v>
+      </c>
+      <c r="E2" t="n">
         <v>6.46013927024749</v>
       </c>
-      <c r="F2">
-        <v>1.9182463093437398E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="n">
+        <v>0.00000191824630934374</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>1992.09105882431</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1992.09105882431</v>
       </c>
-      <c r="E3">
-        <v>4.3572620414828904</v>
-      </c>
-      <c r="F3">
-        <v>4.0075054271971097E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="n">
+        <v>4.35726204148289</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0400750542719711</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>79</v>
       </c>
-      <c r="C4">
-        <v>36117.908941175701</v>
-      </c>
-      <c r="D4">
-        <v>457.18872077437601</v>
-      </c>
+      <c r="C4" t="n">
+        <v>36117.9089411757</v>
+      </c>
+      <c r="D4" t="n">
+        <v>457.188720774376</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,75 +486,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>18246.266167290902</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18246.2661672909</v>
+      </c>
+      <c r="D2" t="n">
         <v>2280.78327091136</v>
       </c>
-      <c r="E2">
-        <v>2.8080590104913301</v>
-      </c>
-      <c r="F2">
-        <v>8.6071640069751796E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="n">
+        <v>2.80805901049133</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00860716400697518</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>189.701732347383</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>189.701732347383</v>
       </c>
-      <c r="E3">
-        <v>0.23355733340284901</v>
-      </c>
-      <c r="F3">
-        <v>0.63023530800918204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="n">
+        <v>0.233557333402849</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.630235308009182</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>79</v>
       </c>
-      <c r="C4">
-        <v>64165.987156541501</v>
-      </c>
-      <c r="D4">
-        <v>812.22768552584205</v>
-      </c>
+      <c r="C4" t="n">
+        <v>64165.9871565415</v>
+      </c>
+      <c r="D4" t="n">
+        <v>812.227685525842</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,80 +576,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>2300.3418297752801</v>
-      </c>
-      <c r="D2">
-        <v>287.54272872191001</v>
-      </c>
-      <c r="E2">
-        <v>14.648754407465301</v>
-      </c>
-      <c r="F2">
-        <v>6.6337061055017301E-13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2300.34182977528</v>
+      </c>
+      <c r="D2" t="n">
+        <v>287.54272872191</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.6487544074653</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000000000000663370610550173</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7.6075927436620203</v>
-      </c>
-      <c r="D3">
-        <v>7.6075927436620203</v>
-      </c>
-      <c r="E3">
-        <v>0.38756590448057598</v>
-      </c>
-      <c r="F3">
-        <v>0.53537453143830804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.60759274366202</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.60759274366202</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.387565904480576</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.535374531438308</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>79</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>1550.70355725634</v>
       </c>
-      <c r="D4">
-        <v>19.629158952611899</v>
-      </c>
+      <c r="D4" t="n">
+        <v>19.6291589526119</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,77 +666,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.89367215980024906</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.11170901997503099</v>
-      </c>
-      <c r="E2" s="1">
-        <v>6.8228413082547696</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8.8316343226076702E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.893672159800249</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.111709019975031</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.82284130825477</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000000883163432260767</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.4770978185471901E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.4770978185471901E-2</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0147709781854719</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0147709781854719</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.902165645618354</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.34509843402894602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="n">
+        <v>0.345098434028946</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>79</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="n">
         <v>1.29345124403675</v>
       </c>
-      <c r="D4" s="1">
-        <v>1.6372800557427201E-2</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" t="n">
+        <v>0.0163728005574272</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,75 +756,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>3552.3039178901399</v>
-      </c>
-      <c r="D2">
-        <v>444.03798973626698</v>
-      </c>
-      <c r="E2">
-        <v>16.371331276235999</v>
-      </c>
-      <c r="F2">
-        <v>5.1442665604482503E-14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3552.30391789014</v>
+      </c>
+      <c r="D2" t="n">
+        <v>444.037989736267</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16.371331276236</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0000000000000514426656044825</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>591.99865041379599</v>
-      </c>
-      <c r="D3">
-        <v>591.99865041379599</v>
-      </c>
-      <c r="E3">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>591.998650413796</v>
+      </c>
+      <c r="D3" t="n">
+        <v>591.998650413796</v>
+      </c>
+      <c r="E3" t="n">
         <v>21.8265244078896</v>
       </c>
-      <c r="F3">
-        <v>1.20633541610818E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="n">
+        <v>0.0000120633541610818</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>79</v>
       </c>
-      <c r="C4">
-        <v>2142.7091418084301</v>
-      </c>
-      <c r="D4">
-        <v>27.122900529220601</v>
-      </c>
+      <c r="C4" t="n">
+        <v>2142.70914180843</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.1229005292206</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,75 +846,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
         <v>139698.291826467</v>
       </c>
-      <c r="D2">
-        <v>17462.286478308299</v>
-      </c>
-      <c r="E2">
-        <v>0.83421815868853599</v>
-      </c>
-      <c r="F2">
-        <v>0.57526650308362803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="n">
+        <v>17462.2864783083</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.834218158688536</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.575266503083628</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>56214.814226964198</v>
-      </c>
-      <c r="D3">
-        <v>56214.814226964198</v>
-      </c>
-      <c r="E3">
-        <v>2.6855256826584402</v>
-      </c>
-      <c r="F3">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>56214.8142269642</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56214.8142269642</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.68552568265844</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.105240638548145</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>79</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>1653668.90832859</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>20932.5178269442</v>
       </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -950,62 +936,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>76420.991968789007</v>
-      </c>
-      <c r="D2">
-        <v>9552.6239960986204</v>
-      </c>
-      <c r="E2">
-        <v>0.26818660901455099</v>
-      </c>
-      <c r="F2">
-        <v>0.97439578955457895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>76420.991968789</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9552.62399609862</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.268186609014551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.974395789554579</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>21348.686724469</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>21348.686724469</v>
       </c>
-      <c r="E3">
-        <v>0.59935698315851305</v>
-      </c>
-      <c r="F3">
-        <v>0.44113425159595099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="n">
+        <v>0.599356983158513</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.441134251595951</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>79</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>2813926.08849775</v>
       </c>
-      <c r="D4">
-        <v>35619.317575920897</v>
-      </c>
+      <c r="D4" t="n">
+        <v>35619.3175759209</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>